--- a/Assets/Data/Advs.xlsx
+++ b/Assets/Data/Advs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Id</t>
   </si>
@@ -24,6 +24,21 @@
   <si>
     <t>Tutorial1</t>
   </si>
+  <si>
+    <t>Tutorial2</t>
+  </si>
+  <si>
+    <t>Tutorial3</t>
+  </si>
+  <si>
+    <t>Tutorial4</t>
+  </si>
+  <si>
+    <t>Tutorial5</t>
+  </si>
+  <si>
+    <t>Tutorial6</t>
+  </si>
 </sst>
 </file>
 
@@ -31,9 +46,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -46,38 +61,51 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,23 +120,70 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -120,67 +195,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -197,181 +212,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,52 +406,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -466,15 +446,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -488,6 +483,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -496,145 +511,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -961,13 +976,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="6" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -983,6 +998,46 @@
       </c>
       <c r="B2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Advs.xlsx
+++ b/Assets/Data/Advs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Id</t>
   </si>
@@ -38,6 +38,21 @@
   </si>
   <si>
     <t>Tutorial6</t>
+  </si>
+  <si>
+    <t>Tutorial7</t>
+  </si>
+  <si>
+    <t>Tutorial8</t>
+  </si>
+  <si>
+    <t>Tutorial9</t>
+  </si>
+  <si>
+    <t>Tutorial10</t>
+  </si>
+  <si>
+    <t>Tutorial11</t>
   </si>
 </sst>
 </file>
@@ -45,8 +60,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -59,53 +74,137 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,90 +217,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -212,49 +227,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,133 +383,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,45 +418,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -478,6 +454,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -499,7 +499,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,7 +526,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -520,7 +535,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -529,127 +544,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -976,13 +991,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1038,6 +1053,46 @@
       </c>
       <c r="B7" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Advs.xlsx
+++ b/Assets/Data/Advs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Id</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Tutorial11</t>
+  </si>
+  <si>
+    <t>Event1</t>
   </si>
 </sst>
 </file>
@@ -61,9 +64,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -74,9 +77,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -84,6 +86,42 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -91,90 +129,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -186,6 +144,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -194,17 +176,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,6 +205,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -227,25 +230,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,7 +290,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,19 +362,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,121 +410,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,6 +421,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -432,30 +446,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,22 +465,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,6 +503,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -526,7 +529,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -535,7 +538,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -544,127 +547,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -991,10 +994,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>
@@ -1095,6 +1098,14 @@
         <v>12</v>
       </c>
     </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>101</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Assets/Data/Advs.xlsx
+++ b/Assets/Data/Advs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Id</t>
   </si>
@@ -55,7 +55,43 @@
     <t>Tutorial11</t>
   </si>
   <si>
-    <t>Event1</t>
+    <t>Tutorial12</t>
+  </si>
+  <si>
+    <t>Opening</t>
+  </si>
+  <si>
+    <t>Event1_1</t>
+  </si>
+  <si>
+    <t>Event1_2</t>
+  </si>
+  <si>
+    <t>Event1_3</t>
+  </si>
+  <si>
+    <t>Event1_4</t>
+  </si>
+  <si>
+    <t>Event1_5</t>
+  </si>
+  <si>
+    <t>Event2_1</t>
+  </si>
+  <si>
+    <t>Event2_2</t>
+  </si>
+  <si>
+    <t>Event2_3</t>
+  </si>
+  <si>
+    <t>Event2_4</t>
+  </si>
+  <si>
+    <t>Event2_5</t>
+  </si>
+  <si>
+    <t>Stage2_1</t>
   </si>
 </sst>
 </file>
@@ -63,10 +99,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -77,30 +113,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,16 +160,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,61 +176,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -206,6 +227,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -213,11 +250,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -230,25 +266,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,157 +446,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,13 +460,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -450,32 +514,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,8 +537,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,24 +557,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -529,145 +565,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -994,7 +1030,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
@@ -1100,10 +1136,106 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>101</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>111</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>112</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>113</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>114</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>115</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>121</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>122</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>123</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>124</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>125</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>131</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Advs.xlsx
+++ b/Assets/Data/Advs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Id</t>
   </si>
@@ -92,6 +92,51 @@
   </si>
   <si>
     <t>Stage2_1</t>
+  </si>
+  <si>
+    <t>Event3_1</t>
+  </si>
+  <si>
+    <t>Event3_2</t>
+  </si>
+  <si>
+    <t>Event3_3</t>
+  </si>
+  <si>
+    <t>Event3_4</t>
+  </si>
+  <si>
+    <t>Event3_5</t>
+  </si>
+  <si>
+    <t>Event4_1</t>
+  </si>
+  <si>
+    <t>Event4_2</t>
+  </si>
+  <si>
+    <t>Event4_3</t>
+  </si>
+  <si>
+    <t>Event4_4</t>
+  </si>
+  <si>
+    <t>Event4_5</t>
+  </si>
+  <si>
+    <t>Event5_1</t>
+  </si>
+  <si>
+    <t>Event5_2</t>
+  </si>
+  <si>
+    <t>Event5_3</t>
+  </si>
+  <si>
+    <t>Event5_4</t>
+  </si>
+  <si>
+    <t>Event5_5</t>
   </si>
 </sst>
 </file>
@@ -100,9 +145,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -113,8 +158,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -122,6 +182,13 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -129,11 +196,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -145,6 +219,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -153,67 +249,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,24 +272,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,13 +311,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,7 +377,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,115 +467,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,31 +485,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,6 +502,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -471,6 +531,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,15 +594,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -533,30 +602,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -565,145 +610,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1030,10 +1075,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>
@@ -1238,6 +1283,126 @@
         <v>25</v>
       </c>
     </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>141</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>142</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>143</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>144</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>145</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>151</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>152</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>153</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>154</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>155</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>161</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>162</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>163</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>164</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>165</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Assets/Data/Advs.xlsx
+++ b/Assets/Data/Advs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Id</t>
   </si>
@@ -58,6 +58,9 @@
     <t>Tutorial12</t>
   </si>
   <si>
+    <t>Tutorial13</t>
+  </si>
+  <si>
     <t>Opening</t>
   </si>
   <si>
@@ -137,6 +140,15 @@
   </si>
   <si>
     <t>Event5_5</t>
+  </si>
+  <si>
+    <t>Event6_1</t>
+  </si>
+  <si>
+    <t>Event6_2</t>
+  </si>
+  <si>
+    <t>Event6_3</t>
   </si>
 </sst>
 </file>
@@ -144,10 +156,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -158,6 +170,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -165,19 +185,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -189,76 +252,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,17 +277,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -311,37 +323,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,145 +491,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,6 +514,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -539,55 +599,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,16 +622,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -628,127 +640,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1075,10 +1087,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>
@@ -1189,7 +1201,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -1197,7 +1209,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -1205,7 +1217,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -1213,7 +1225,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -1221,7 +1233,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1229,7 +1241,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1237,7 +1249,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -1245,7 +1257,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -1253,7 +1265,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -1261,7 +1273,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -1269,7 +1281,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
@@ -1277,7 +1289,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -1285,7 +1297,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -1293,7 +1305,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
@@ -1301,7 +1313,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
@@ -1309,7 +1321,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
@@ -1317,7 +1329,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
@@ -1325,7 +1337,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
@@ -1333,7 +1345,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
@@ -1341,7 +1353,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
@@ -1349,7 +1361,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
@@ -1357,7 +1369,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
@@ -1365,7 +1377,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
@@ -1373,7 +1385,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
@@ -1381,7 +1393,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B38" t="s">
         <v>38</v>
@@ -1389,7 +1401,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B39" t="s">
         <v>39</v>
@@ -1397,10 +1409,42 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B40" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>165</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>171</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>172</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>173</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Advs.xlsx
+++ b/Assets/Data/Advs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Id</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>Stage2_1</t>
+  </si>
+  <si>
+    <t>Event3_0</t>
   </si>
   <si>
     <t>Event3_1</t>
@@ -156,10 +159,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -170,67 +173,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,24 +218,69 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,7 +295,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,32 +303,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -323,187 +326,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,16 +521,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,9 +552,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,17 +594,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,26 +617,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -622,145 +625,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1087,10 +1090,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>
@@ -1305,7 +1308,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
@@ -1313,7 +1316,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
@@ -1321,7 +1324,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
@@ -1329,7 +1332,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
@@ -1337,7 +1340,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
@@ -1345,7 +1348,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
@@ -1353,7 +1356,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
@@ -1361,7 +1364,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
@@ -1369,7 +1372,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
@@ -1377,7 +1380,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
@@ -1385,7 +1388,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
@@ -1393,7 +1396,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B38" t="s">
         <v>38</v>
@@ -1401,7 +1404,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B39" t="s">
         <v>39</v>
@@ -1409,7 +1412,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B40" t="s">
         <v>40</v>
@@ -1417,7 +1420,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B41" t="s">
         <v>41</v>
@@ -1425,7 +1428,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B42" t="s">
         <v>42</v>
@@ -1433,7 +1436,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B43" t="s">
         <v>43</v>
@@ -1441,10 +1444,18 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B44" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>173</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Advs.xlsx
+++ b/Assets/Data/Advs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
   <si>
     <t>Id</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>Event6_3</t>
+  </si>
+  <si>
+    <t>Event6_4</t>
   </si>
   <si>
     <t>RouteSelect1</t>
@@ -250,10 +253,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -264,11 +267,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -280,14 +282,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,9 +310,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,23 +325,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,6 +349,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -355,7 +380,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -370,13 +395,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -385,26 +403,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -417,43 +420,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,139 +594,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,8 +646,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -655,6 +660,21 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -678,33 +698,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,145 +719,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1181,10 +1184,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="3"/>
@@ -2027,22 +2030,22 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="B57" t="s">
         <v>58</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D57" t="str">
         <f>INDEX(Define!B:B,MATCH(C57,Define!A:A))</f>
-        <v>なし</v>
+        <v>リザルト</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B58" t="s">
         <v>59</v>
@@ -2057,22 +2060,22 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B59" t="s">
         <v>60</v>
       </c>
       <c r="C59">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D59" t="str">
         <f>INDEX(Define!B:B,MATCH(C59,Define!A:A))</f>
-        <v>リザルト</v>
+        <v>なし</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B60" t="s">
         <v>61</v>
@@ -2082,6 +2085,21 @@
       </c>
       <c r="D60" t="str">
         <f>INDEX(Define!B:B,MATCH(C60,Define!A:A))</f>
+        <v>リザルト</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>204</v>
+      </c>
+      <c r="B61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61">
+        <v>11</v>
+      </c>
+      <c r="D61" t="str">
+        <f>INDEX(Define!B:B,MATCH(C61,Define!A:A))</f>
         <v>リザルト</v>
       </c>
     </row>
@@ -2112,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2120,7 +2138,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2128,7 +2146,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2136,7 +2154,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2144,7 +2162,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2152,7 +2170,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2160,7 +2178,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2168,7 +2186,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2176,7 +2194,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2184,7 +2202,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2192,7 +2210,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2200,7 +2218,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2208,7 +2226,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2216,7 +2234,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Advs.xlsx
+++ b/Assets/Data/Advs.xlsx
@@ -250,15 +250,39 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -273,7 +297,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,15 +334,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,23 +387,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,69 +401,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -417,19 +417,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,19 +549,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,139 +591,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,21 +614,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -652,9 +643,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -698,13 +691,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,16 +722,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -734,132 +740,135 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1183,11 +1192,14 @@
   <sheetPr/>
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A57" sqref="$A57:$XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="13.2727272727273" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -2025,17 +2037,17 @@
         <v>リザルト</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57">
+    <row r="57" s="1" customFormat="1" spans="1:4">
+      <c r="A57" s="1">
         <v>201</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57" t="str">
+      <c r="C57" s="1">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C57,Define!A:A))</f>
         <v>なし</v>
       </c>
@@ -2070,17 +2082,17 @@
         <v>リザルト</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60">
+    <row r="60" s="1" customFormat="1" spans="1:4">
+      <c r="A60" s="1">
         <v>204</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="1">
         <v>11</v>
       </c>
-      <c r="D60" t="str">
+      <c r="D60" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C60,Define!A:A))</f>
         <v>リザルト</v>
       </c>

--- a/Assets/Data/Advs.xlsx
+++ b/Assets/Data/Advs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
   <si>
     <t>Id</t>
   </si>
@@ -65,79 +65,19 @@
     <t>Tutorial13</t>
   </si>
   <si>
+    <t>Gameover</t>
+  </si>
+  <si>
     <t>RebornEffect</t>
   </si>
   <si>
     <t>Opening</t>
   </si>
   <si>
-    <t>Event1_1</t>
-  </si>
-  <si>
-    <t>Event1_2</t>
-  </si>
-  <si>
-    <t>Event1_3</t>
-  </si>
-  <si>
-    <t>Event1_4</t>
-  </si>
-  <si>
-    <t>Event1_5</t>
-  </si>
-  <si>
-    <t>Event1_6</t>
-  </si>
-  <si>
-    <t>Event1_7</t>
-  </si>
-  <si>
-    <t>Event2_1</t>
-  </si>
-  <si>
-    <t>Event2_2</t>
-  </si>
-  <si>
-    <t>Event2_3</t>
-  </si>
-  <si>
-    <t>Event2_4</t>
-  </si>
-  <si>
-    <t>Event2_5</t>
-  </si>
-  <si>
-    <t>Event2_6</t>
-  </si>
-  <si>
-    <t>Event2_7</t>
-  </si>
-  <si>
-    <t>Stage2_1</t>
-  </si>
-  <si>
-    <t>Event3_0</t>
-  </si>
-  <si>
-    <t>Event3_1</t>
-  </si>
-  <si>
-    <t>Event3_2</t>
-  </si>
-  <si>
-    <t>Event3_3</t>
-  </si>
-  <si>
-    <t>Event3_4</t>
-  </si>
-  <si>
-    <t>Event3_5</t>
-  </si>
-  <si>
-    <t>Event3_6</t>
-  </si>
-  <si>
-    <t>Event3_7</t>
+    <t>Event2</t>
+  </si>
+  <si>
+    <t>Event3</t>
   </si>
   <si>
     <t>Event4_1</t>
@@ -146,61 +86,115 @@
     <t>Event4_2</t>
   </si>
   <si>
-    <t>Event4_3</t>
-  </si>
-  <si>
-    <t>Event4_4</t>
-  </si>
-  <si>
-    <t>Event4_5</t>
-  </si>
-  <si>
-    <t>Event4_6</t>
-  </si>
-  <si>
-    <t>Event4_7</t>
-  </si>
-  <si>
-    <t>Event5_1</t>
-  </si>
-  <si>
-    <t>Event5_2</t>
-  </si>
-  <si>
-    <t>Event5_3</t>
-  </si>
-  <si>
-    <t>Event5_4</t>
-  </si>
-  <si>
-    <t>Event5_5</t>
-  </si>
-  <si>
-    <t>Event5_6</t>
-  </si>
-  <si>
-    <t>Event5_7</t>
-  </si>
-  <si>
-    <t>Event6_1</t>
-  </si>
-  <si>
-    <t>Event6_2</t>
-  </si>
-  <si>
-    <t>Event6_3</t>
-  </si>
-  <si>
-    <t>RouteSelect1</t>
-  </si>
-  <si>
-    <t>RouteSelect2</t>
-  </si>
-  <si>
-    <t>Gameover</t>
-  </si>
-  <si>
     <t>Turnover</t>
+  </si>
+  <si>
+    <t>Ending</t>
+  </si>
+  <si>
+    <t>Actor0001_1</t>
+  </si>
+  <si>
+    <t>Actor0002_1</t>
+  </si>
+  <si>
+    <t>Actor0003_1</t>
+  </si>
+  <si>
+    <t>Actor0004_1</t>
+  </si>
+  <si>
+    <t>Actor0005_1</t>
+  </si>
+  <si>
+    <t>Actor0006_1</t>
+  </si>
+  <si>
+    <t>Actor0007_1</t>
+  </si>
+  <si>
+    <t>Actor0001_2</t>
+  </si>
+  <si>
+    <t>Actor0002_2</t>
+  </si>
+  <si>
+    <t>Actor0003_2</t>
+  </si>
+  <si>
+    <t>Actor0004_2</t>
+  </si>
+  <si>
+    <t>Actor0005_2</t>
+  </si>
+  <si>
+    <t>Actor0006_2</t>
+  </si>
+  <si>
+    <t>Actor0007_2</t>
+  </si>
+  <si>
+    <t>Actor0001_3</t>
+  </si>
+  <si>
+    <t>Actor0002_3</t>
+  </si>
+  <si>
+    <t>Actor0003_3</t>
+  </si>
+  <si>
+    <t>Actor0004_3</t>
+  </si>
+  <si>
+    <t>Actor0005_3</t>
+  </si>
+  <si>
+    <t>Actor0006_3</t>
+  </si>
+  <si>
+    <t>Actor0007_3</t>
+  </si>
+  <si>
+    <t>Actor0001_4</t>
+  </si>
+  <si>
+    <t>Actor0002_4</t>
+  </si>
+  <si>
+    <t>Actor0003_4</t>
+  </si>
+  <si>
+    <t>Actor0004_4</t>
+  </si>
+  <si>
+    <t>Actor0005_4</t>
+  </si>
+  <si>
+    <t>Actor0006_4</t>
+  </si>
+  <si>
+    <t>Actor0007_4</t>
+  </si>
+  <si>
+    <t>Actor0001_5</t>
+  </si>
+  <si>
+    <t>Actor0002_5</t>
+  </si>
+  <si>
+    <t>Actor0003_5</t>
+  </si>
+  <si>
+    <t>Actor0004_5</t>
+  </si>
+  <si>
+    <t>Actor0005_5</t>
+  </si>
+  <si>
+    <t>Actor0006_5</t>
+  </si>
+  <si>
+    <t>Actor0007_5</t>
   </si>
   <si>
     <t>なし</t>
@@ -251,9 +245,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -271,27 +265,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -305,38 +282,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -349,16 +297,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,13 +320,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -387,10 +327,18 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -407,6 +355,52 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -423,187 +417,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,6 +608,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -632,21 +661,25 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -667,30 +700,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -699,21 +708,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -722,16 +716,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -740,127 +734,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1190,10 +1184,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="3"/>
@@ -1409,22 +1403,22 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D15" t="str">
         <f>INDEX(Define!B:B,MATCH(C15,Define!A:A))</f>
-        <v>なし</v>
+        <v>リザルト</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -1439,7 +1433,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1454,7 +1448,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -1469,7 +1463,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -1484,7 +1478,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>114</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
@@ -1499,52 +1493,52 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D21" t="str">
         <f>INDEX(Define!B:B,MATCH(C21,Define!A:A))</f>
-        <v>なし</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
-        <v>116</v>
-      </c>
-      <c r="B22" t="s">
+        <v>戦略</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:4">
+      <c r="A22" s="1">
+        <v>123</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22" t="str">
+      <c r="C22" s="1">
+        <v>11</v>
+      </c>
+      <c r="D22" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C22,Define!A:A))</f>
-        <v>なし</v>
+        <v>リザルト</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D23" t="str">
         <f>INDEX(Define!B:B,MATCH(C23,Define!A:A))</f>
-        <v>なし</v>
+        <v>リザルト</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>121</v>
+        <v>1001</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -1559,7 +1553,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>122</v>
+        <v>1002</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1574,7 +1568,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>123</v>
+        <v>1003</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
@@ -1589,7 +1583,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>124</v>
+        <v>1004</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
@@ -1604,7 +1598,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>125</v>
+        <v>1005</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
@@ -1619,7 +1613,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>126</v>
+        <v>1006</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
@@ -1634,7 +1628,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>127</v>
+        <v>1007</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
@@ -1649,7 +1643,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>131</v>
+        <v>2001</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
@@ -1664,7 +1658,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>140</v>
+        <v>2002</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
@@ -1679,7 +1673,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>141</v>
+        <v>2003</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
@@ -1694,7 +1688,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>142</v>
+        <v>2004</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -1709,7 +1703,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>143</v>
+        <v>2005</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
@@ -1724,7 +1718,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>144</v>
+        <v>2006</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
@@ -1739,7 +1733,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>145</v>
+        <v>2007</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
@@ -1754,7 +1748,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>146</v>
+        <v>3001</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
@@ -1769,7 +1763,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>147</v>
+        <v>3002</v>
       </c>
       <c r="B39" t="s">
         <v>40</v>
@@ -1784,7 +1778,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>151</v>
+        <v>3003</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
@@ -1799,7 +1793,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>152</v>
+        <v>3004</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
@@ -1814,7 +1808,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>153</v>
+        <v>3005</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
@@ -1829,7 +1823,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>154</v>
+        <v>3006</v>
       </c>
       <c r="B43" t="s">
         <v>44</v>
@@ -1844,7 +1838,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>155</v>
+        <v>3007</v>
       </c>
       <c r="B44" t="s">
         <v>45</v>
@@ -1859,7 +1853,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>156</v>
+        <v>4001</v>
       </c>
       <c r="B45" t="s">
         <v>46</v>
@@ -1874,7 +1868,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>157</v>
+        <v>4002</v>
       </c>
       <c r="B46" t="s">
         <v>47</v>
@@ -1889,7 +1883,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>161</v>
+        <v>4003</v>
       </c>
       <c r="B47" t="s">
         <v>48</v>
@@ -1904,7 +1898,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>162</v>
+        <v>4004</v>
       </c>
       <c r="B48" t="s">
         <v>49</v>
@@ -1919,7 +1913,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>163</v>
+        <v>4005</v>
       </c>
       <c r="B49" t="s">
         <v>50</v>
@@ -1934,7 +1928,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>164</v>
+        <v>4006</v>
       </c>
       <c r="B50" t="s">
         <v>51</v>
@@ -1949,7 +1943,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>165</v>
+        <v>4007</v>
       </c>
       <c r="B51" t="s">
         <v>52</v>
@@ -1964,7 +1958,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>166</v>
+        <v>5001</v>
       </c>
       <c r="B52" t="s">
         <v>53</v>
@@ -1979,7 +1973,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>167</v>
+        <v>5002</v>
       </c>
       <c r="B53" t="s">
         <v>54</v>
@@ -1994,67 +1988,67 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>171</v>
+        <v>5003</v>
       </c>
       <c r="B54" t="s">
         <v>55</v>
       </c>
       <c r="C54">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D54" t="str">
         <f>INDEX(Define!B:B,MATCH(C54,Define!A:A))</f>
-        <v>戦略</v>
+        <v>なし</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>172</v>
+        <v>5004</v>
       </c>
       <c r="B55" t="s">
         <v>56</v>
       </c>
       <c r="C55">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D55" t="str">
         <f>INDEX(Define!B:B,MATCH(C55,Define!A:A))</f>
-        <v>リザルト</v>
+        <v>なし</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>173</v>
+        <v>5005</v>
       </c>
       <c r="B56" t="s">
         <v>57</v>
       </c>
       <c r="C56">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D56" t="str">
         <f>INDEX(Define!B:B,MATCH(C56,Define!A:A))</f>
-        <v>リザルト</v>
-      </c>
-    </row>
-    <row r="57" s="1" customFormat="1" spans="1:4">
-      <c r="A57" s="1">
-        <v>201</v>
-      </c>
-      <c r="B57" s="1" t="s">
+        <v>なし</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>5006</v>
+      </c>
+      <c r="B57" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="1">
-        <v>0</v>
-      </c>
-      <c r="D57" s="1" t="str">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57" t="str">
         <f>INDEX(Define!B:B,MATCH(C57,Define!A:A))</f>
         <v>なし</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>202</v>
+        <v>5007</v>
       </c>
       <c r="B58" t="s">
         <v>59</v>
@@ -2065,36 +2059,6 @@
       <c r="D58" t="str">
         <f>INDEX(Define!B:B,MATCH(C58,Define!A:A))</f>
         <v>なし</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59">
-        <v>203</v>
-      </c>
-      <c r="B59" t="s">
-        <v>60</v>
-      </c>
-      <c r="C59">
-        <v>11</v>
-      </c>
-      <c r="D59" t="str">
-        <f>INDEX(Define!B:B,MATCH(C59,Define!A:A))</f>
-        <v>リザルト</v>
-      </c>
-    </row>
-    <row r="60" s="1" customFormat="1" spans="1:4">
-      <c r="A60" s="1">
-        <v>204</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C60" s="1">
-        <v>11</v>
-      </c>
-      <c r="D60" s="1" t="str">
-        <f>INDEX(Define!B:B,MATCH(C60,Define!A:A))</f>
-        <v>リザルト</v>
       </c>
     </row>
   </sheetData>
@@ -2124,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2132,7 +2096,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2140,7 +2104,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2148,7 +2112,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2156,7 +2120,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2164,7 +2128,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2172,7 +2136,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2180,7 +2144,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2188,7 +2152,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2196,7 +2160,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2204,7 +2168,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2212,7 +2176,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2220,7 +2184,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2228,7 +2192,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
